--- a/target/classes/cursos.xlsx
+++ b/target/classes/cursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutoCertiMavenReestruturado\AutomacaoCertificadoMaven-restructured\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46EF114-4D0D-4E42-B5F2-5EB96485AFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305C3AB9-C925-4FEB-873C-805BC701ADBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>NomeCompleto</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Seccional</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
 </sst>
 </file>
@@ -396,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K999"/>
+  <dimension ref="A1:G998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -410,7 +407,7 @@
     <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -453,7 +450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -473,7 +470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -493,7 +490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -513,7 +510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -533,7 +530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -553,29 +550,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
-        <v>45963</v>
+      <c r="E8" s="3">
+        <v>45962</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
     </row>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1555,7 +1550,6 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1564,7 +1558,7 @@
     <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{30192EB4-CC12-4B3A-8797-34EFABE268D0}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{D189DEB7-3F9C-4F0D-BC10-3D07A477F362}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{B1E90E8E-120D-48F5-AA81-5AA0D7DCB83C}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{1CC87C5E-FB7B-47BC-8441-A344FE912AE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
